--- a/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
     <sheet name="修改意见" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题列表!$A$1:$I$42</definedName>
+  </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="122">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -381,6 +384,126 @@
   </si>
   <si>
     <t>李帆，王阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业产品分析-各地市厂商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业产品分析-今年项目状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业产品分析-锐安介入情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧展示所有厂商对应筛选条件的地盘数量及明细，点击对应的厂商，弹出新的页面右侧展示内容为什么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧是否展示，展示信息具体展示什么内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧是否展示，展示具体是什么内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业产品分析-近期报工情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧是否仅展示的城市，项目编号，名称，报公状态信息的列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧是否仅展示城市，时间，重点客户列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业产品分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认各子模块权限，权限目前理解为供管理层使用，数据权限的相关控制为控制其对应的行业，是否正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否取当年数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中的点地图实现存在问题，底部的gis图层需要内网环境中存在搭建好的WMS服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高祥云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅为ui参考，需求不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否时间范围为取近3天，近7天，近15天，近30天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间范围固定为最近5天15天30天。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取项目状态，跟是否当年无关，理论上只要未结项的项目，每个行业、产品，地市只有一个。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有重点客户姓名，对应当前所在城市。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同3显示地市名和介入状态。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示项目名称，项目状态。选择全国地图时显示全国的项目，选择若干省时显示所选省的项目。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击对应厂商现实的不是对应的部分地图吗？为什么又弹出新页面了？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同3显示所选范围内所有地市名，有报工或无报工。时间范围固定为最近5天15天30天。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按人员名单控制，跟岗位无关。人对应行业。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +555,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -455,11 +578,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,6 +632,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -802,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103:B104"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1057,7 +1192,7 @@
         <v>43781</v>
       </c>
       <c r="G9" s="9">
-        <v>43790</v>
+        <v>43789</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>25</v>
@@ -1084,7 +1219,7 @@
         <v>43781</v>
       </c>
       <c r="G10" s="9">
-        <v>43791</v>
+        <v>43789</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>27</v>
@@ -1101,14 +1236,18 @@
       <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F11" s="9">
         <v>43784</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="9">
+        <v>43789</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>57</v>
       </c>
@@ -1124,13 +1263,21 @@
       <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="F12" s="9">
         <v>43784</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="I12" s="2" t="s">
         <v>58</v>
       </c>
@@ -1154,7 +1301,9 @@
       <c r="F13" s="9">
         <v>43787</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="9">
+        <v>43789</v>
+      </c>
       <c r="H13" s="2" t="s">
         <v>59</v>
       </c>
@@ -1179,7 +1328,9 @@
       <c r="F14" s="9">
         <v>43787</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="9">
+        <v>43789</v>
+      </c>
       <c r="H14" s="2" t="s">
         <v>60</v>
       </c>
@@ -1195,13 +1346,21 @@
       <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="F15" s="9">
         <v>43787</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="I15" s="2" t="s">
         <v>61</v>
       </c>
@@ -1216,13 +1375,21 @@
       <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="F16" s="9">
         <v>43787</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="I16" s="2" t="s">
         <v>62</v>
       </c>
@@ -1246,7 +1413,9 @@
       <c r="F17" s="9">
         <v>43787</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="9">
+        <v>43789</v>
+      </c>
       <c r="H17" s="2" t="s">
         <v>63</v>
       </c>
@@ -1271,7 +1440,9 @@
       <c r="F18" s="9">
         <v>43787</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="9">
+        <v>43789</v>
+      </c>
       <c r="H18" s="2" t="s">
         <v>64</v>
       </c>
@@ -1296,7 +1467,9 @@
       <c r="F19" s="9">
         <v>43787</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="9">
+        <v>43789</v>
+      </c>
       <c r="H19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1321,7 +1494,9 @@
       <c r="F20" s="9">
         <v>43787</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="9">
+        <v>43789</v>
+      </c>
       <c r="H20" s="2" t="s">
         <v>59</v>
       </c>
@@ -1346,7 +1521,9 @@
       <c r="F21" s="9">
         <v>43787</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="9">
+        <v>43789</v>
+      </c>
       <c r="H21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1371,7 +1548,9 @@
       <c r="F22" s="9">
         <v>43787</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="9">
+        <v>43789</v>
+      </c>
       <c r="H22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1392,7 +1571,9 @@
       <c r="F23" s="9">
         <v>43787</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="9">
+        <v>43789</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
         <v>62</v>
@@ -1417,7 +1598,9 @@
       <c r="F24" s="9">
         <v>43787</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="9">
+        <v>43789</v>
+      </c>
       <c r="H24" s="2" t="s">
         <v>67</v>
       </c>
@@ -1442,7 +1625,9 @@
       <c r="F25" s="9">
         <v>43787</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="9">
+        <v>43789</v>
+      </c>
       <c r="H25" s="2" t="s">
         <v>68</v>
       </c>
@@ -1467,7 +1652,9 @@
       <c r="F26" s="9">
         <v>43787</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="9">
+        <v>43789</v>
+      </c>
       <c r="H26" s="2" t="s">
         <v>73</v>
       </c>
@@ -1483,14 +1670,18 @@
       <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F27" s="9">
         <v>43788</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="9">
+        <v>43789</v>
+      </c>
       <c r="H27" s="2" t="s">
         <v>69</v>
       </c>
@@ -1517,13 +1708,384 @@
       <c r="F28" s="9">
         <v>43788</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="9">
+        <v>43789</v>
+      </c>
       <c r="H28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="I28" s="2"/>
     </row>
+    <row r="29" spans="1:9" ht="27">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="9">
+        <v>43788</v>
+      </c>
+      <c r="G29" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="9">
+        <v>43788</v>
+      </c>
+      <c r="G30" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="9">
+        <v>43788</v>
+      </c>
+      <c r="G31" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="9">
+        <v>43788</v>
+      </c>
+      <c r="G32" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="9">
+        <v>43788</v>
+      </c>
+      <c r="G33" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="27">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="9">
+        <v>43790</v>
+      </c>
+      <c r="G34" s="9">
+        <v>43790</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="27">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="9">
+        <v>43790</v>
+      </c>
+      <c r="G35" s="9">
+        <v>43790</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="9">
+        <v>43790</v>
+      </c>
+      <c r="G36" s="9">
+        <v>43790</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="9">
+        <v>43790</v>
+      </c>
+      <c r="G37" s="9">
+        <v>43790</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="9">
+        <v>43790</v>
+      </c>
+      <c r="G38" s="9">
+        <v>43790</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="9">
+        <v>43790</v>
+      </c>
+      <c r="G39" s="9">
+        <v>43790</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="9">
+        <v>43790</v>
+      </c>
+      <c r="G40" s="9">
+        <v>43790</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="9">
+        <v>43790</v>
+      </c>
+      <c r="G41" s="9">
+        <v>43790</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I42"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1534,7 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="124">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -504,6 +504,14 @@
   </si>
   <si>
     <t>按人员名单控制，跟岗位无关。人对应行业。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/11/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -633,6 +641,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -937,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2077,12 +2088,23 @@
       <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="17" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I42"/>

--- a/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="148">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -507,11 +507,107 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工程售后</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019/11/</t>
+    <t>工程售后-合同项目整体交付概况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件为一级部门，二级部门，合同主体，项目经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图颜色区间范围需要确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向的用户为领导层，一级部门领导，二级部门领导，项目经理，合同主体部门领导，其中，与一二级部门领导冲突，合同主体部门领导权限如何控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源选取全部合同数据，不限制时间区间范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析维度中的项目状态为未启动，已完工未验收，已验收，未完工，不具备条件等5项目状态，此维度需考虑扩展性。以便后续拓展维保情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后-合同项目整体交付概况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计是否需要对应钻取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不具备条件钻取所对应的筛选条件及数据列取数源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完工钻取所对应的筛选条件及数据列取数源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已验收钻取所对应的筛选条件及数据列取数源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完工未验收钻取所对应的筛选条件及数据列取数源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未启动钻取所对应的筛选条件及数据列取数源需确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后-工程排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完工合同额详情页面如何展示，有何筛选条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同完工率详情页面如何展示，有何筛选条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时完工率详情页面如何展示，有何筛选条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时排名详情页面如何展示，有何筛选条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施工程师详情页面如何展示，有何筛选条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后-售后排名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收合同额详情页面如何展示，有何筛选条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同验收率详情页面如何展示，有何筛选条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时验收率详情页面如何展示，有何筛选条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付经理排名详情页面如何展示，有何筛选条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围可进行配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,6 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -948,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2094,16 +2191,250 @@
       <c r="E42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G42" s="2"/>
+      <c r="F42" s="9">
+        <v>43790</v>
+      </c>
+      <c r="G42" s="9">
+        <v>43790</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
       <c r="B43" s="17" t="s">
         <v>122</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="27">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="27">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="171">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -608,6 +608,143 @@
   </si>
   <si>
     <t>范围可进行配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一级部门，二级部门，项目经理，时间，里程碑（多选），里程碑承诺完成时间，预计完成时间，合同类型，（省份/地市），超期状态筛选条件
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构为新家园的工程售后对应的数据取合同金额时使用老家园业绩记录基础表中的合同金额。</t>
+  </si>
+  <si>
+    <t>新家园与老家园数据以哪个为主？业务说要取并集，若如此，合同金额若取自老家园，新家园中老家园缺失的那部分合同金额就缺失了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新家园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> YJT_GCSH-construct_project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工程项目表与新家园</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> YJT_GCSH-check_project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验收项目表关系是什么？工程项目表中是否包含验收项目？如何才能在新家园中取到完整的项目？</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老家园要以哪张表为主表？如何才能在老家园中取到完整的项目？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取数中代表处主任如何通过一级部门进行获取，关系在哪里维护的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收项目在工程项目之后的环节，两者通过项目编码进行关联，以工程表为主表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老家园中的项目与新家园中的项目不取并集，按王阔所述应取新家园，按业务方所述新家园存在数据问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过t_dept与t_user表进行关联，检查后通过post_id进行关联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程类项目与验收类项目中有相重合的部分，现发现工程类中不含全部验收类的项目，在取工程类排名时，若要排除验收类项目，则会丢失部分验收类项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程类项目及验收类项目表中project_code与budget_code不唯一</t>
+  </si>
+  <si>
+    <t>省份，城市信息目前从老家园中合同评审取到，现修改合同金额取值从业绩记录基础表中取合同拆分金额，该表总可取出省份和城市信息，是否进行替换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类型（购销，集成，服务）是否存在别的取值方式，目前通过评审信息取该类型感觉不是最正确的方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各项目类型对应的里程碑名称不确定(未完工：三种类型，分别为，类型为购销时，设备验收里程碑状态为非**完成。类型为集成时，完工或初验里程碑状态为非**完成，服务：服务关闭里程碑状态为非**完成。
+已完工未验收:集成里程碑为完工，服务关闭里程碑状态为**未完成，（项目管理-项目审批记录-流程名称（项目移交）-当前节点通过 完成），并且验收管理-项目验收里程碑为终验、验收、服务结束，购销类无此状态
+已验收：验收/终验/服务结束里程碑为**完成)**完成需要明白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如里程碑状态不为超期完成，非正常完成，完成，按期完成的，都是该里程碑未完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收项目与工程项目不存在关联关系，在进行工程项目排名时，使用工程项目表，在售后排名时使用验收项目表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将错误数据记录反馈，目前先排除不唯一的数据进行处理，待反馈后处理具体数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取业绩记录基础表中的省市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前先按照确认的方式获取分类，后续家园将会开发对应功能添加该分类字段。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -615,7 +752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +786,12 @@
       <color rgb="FF000000"/>
       <name val="SimSun"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -697,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,11 +879,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1045,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2170,7 +2319,7 @@
       <c r="G41" s="9">
         <v>43790</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="18" t="s">
         <v>114</v>
       </c>
       <c r="I41" s="2"/>
@@ -2204,238 +2353,717 @@
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="6" t="s">
         <v>146</v>
       </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G43" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H44" t="s">
+      <c r="D44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G44" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="27">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="4" t="s">
         <v>125</v>
       </c>
+      <c r="D45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G45" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="27">
+      <c r="C46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G46" s="9">
+        <v>43820</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="C47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G47" s="9">
+        <v>43820</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="6">
-        <v>47</v>
-      </c>
-      <c r="B48" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G48" s="9">
+        <v>43820</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="6">
+        <v>50</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
-      <c r="B49" s="17" t="s">
+      <c r="C49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G49" s="9">
+        <v>43820</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="6">
+        <v>51</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="C50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G50" s="9">
+        <v>43820</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="6">
-        <v>50</v>
-      </c>
-      <c r="B51" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="C51" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G51" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" ht="54">
       <c r="A52" s="6">
-        <v>51</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G52" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="54">
       <c r="A53" s="6">
-        <v>52</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G53" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" ht="54">
       <c r="A54" s="6">
-        <v>53</v>
-      </c>
-      <c r="B54" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="C54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G54" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="54">
       <c r="A55" s="6">
-        <v>54</v>
-      </c>
-      <c r="B55" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="C55" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G55" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" ht="54">
       <c r="A56" s="6">
-        <v>55</v>
-      </c>
-      <c r="B56" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="C56" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G56" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="54">
       <c r="A57" s="6">
-        <v>56</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G57" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" ht="54">
+      <c r="A58" s="6">
+        <v>59</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G58" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="54">
+      <c r="A59" s="6">
+        <v>60</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G59" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" ht="54">
+      <c r="A60" s="6">
+        <v>61</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="6">
-        <v>57</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="6">
-        <v>58</v>
-      </c>
-      <c r="B59" s="17" t="s">
+      <c r="D60" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G60" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="54">
+      <c r="A61" s="6">
+        <v>62</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="6">
-        <v>59</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="6">
-        <v>60</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="C61" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="9">
+        <v>43805</v>
+      </c>
+      <c r="G61" s="9">
+        <v>43805</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="6">
-        <v>61</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="9">
+        <v>43819</v>
+      </c>
+      <c r="G62" s="9">
+        <v>43819</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="27">
       <c r="A63" s="6">
-        <v>62</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>145</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="9">
+        <v>43819</v>
+      </c>
+      <c r="G63" s="9">
+        <v>43819</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" ht="27">
+      <c r="A64" s="6">
+        <v>65</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="9">
+        <v>43819</v>
+      </c>
+      <c r="G64" s="9">
+        <v>43819</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="27">
+      <c r="A65" s="6">
+        <v>66</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="9">
+        <v>43819</v>
+      </c>
+      <c r="G65" s="9">
+        <v>43819</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" ht="94.5">
+      <c r="A66" s="6">
+        <v>67</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" s="9">
+        <v>43823</v>
+      </c>
+      <c r="G66" s="9">
+        <v>43823</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" ht="27">
+      <c r="A67" s="6">
+        <v>68</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="9">
+        <v>43823</v>
+      </c>
+      <c r="G67" s="9">
+        <v>43823</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6">
+        <v>69</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="9">
+        <v>43823</v>
+      </c>
+      <c r="G68" s="9">
+        <v>43823</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6">
+        <v>70</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="9">
+        <v>43823</v>
+      </c>
+      <c r="G69" s="9">
+        <v>43823</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6">
+        <v>71</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="9">
+        <v>43823</v>
+      </c>
+      <c r="G70" s="9">
+        <v>43823</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I70" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I42"/>
@@ -2449,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2630,15 +3258,21 @@
       <c r="C7" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F7" s="9">
         <v>43789</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="27">
       <c r="A8" s="2">
@@ -2650,15 +3284,21 @@
       <c r="C8" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F8" s="9">
         <v>43789</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="25.5">
       <c r="A9" s="2">
@@ -2670,15 +3310,21 @@
       <c r="C9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="9">
         <v>43789</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
@@ -2690,15 +3336,43 @@
       <c r="C10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="9">
         <v>43789</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="9">
+        <v>43789</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="13" t="s">

--- a/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题列表!$A$1:$I$42</definedName>
   </definedNames>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="195">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -747,12 +747,108 @@
     <t>目前先按照确认的方式获取分类，后续家园将会开发对应功能添加该分类字段。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>研发分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各表都是可下钻，具体需要钻到何种维度，以何种方式展现？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计的时间范围以那个时间进行相关筛选。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人-项目维度中项目资源中作为项目成员的项目数量与实际报工涉及的项目数量及作为项目成员但未报工的项目及不是成员但报工的项目具体什么含义，如何获取？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人-项目维度中作为项目成员但未报工的项目及不是成员但报工对应的平均值是通过除以对应的项目数量进行计算吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财-项目维度分析中人力资源投入对应的预算及实际花费情况对应的平均值通过什么进行平均</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>财-项目维度分析中人力资源投入与费用投入偏差如何计算偏差值，偏差率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品维度如何计算对应的部门的投入产出比数据对应的平均结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人-财维度对应的投入产出所对应的散点图分析的毛利和净利润是什么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品投入产出比值分布情况展现的对应比值是0~1，1~2这样的范围内的数量进行比较吗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>廉洁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻取部门层级，从事业群到一级部门，从一级部门到二级部门，如人-项目可钻取到人。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相应的筛选条件对应的字段需确认，在项目维度中只去分析当年，当季，当月，人-项目维度取时间范围，财项目维度取时间范围，产品维度无范围选取，产品-财维度取当年，当季，当月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前两个分析项目与人的一对多的关系，总的人数对应的报工项目进行平均，后两个分析项目与人员的不匹配关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏差值通过对预算的对比获取，偏差率与预算进行比较获取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过平均产品结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散点对应的是产品，对应的毛利和净利润是两个指标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,6 +888,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -840,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -890,6 +992,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1194,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="C68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3064,6 +3167,240 @@
         <v>170</v>
       </c>
       <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6">
+        <v>72</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F71" s="9">
+        <v>43837</v>
+      </c>
+      <c r="G71" s="9">
+        <v>43838</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6">
+        <v>73</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F72" s="9">
+        <v>43837</v>
+      </c>
+      <c r="G72" s="9">
+        <v>43838</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="27">
+      <c r="A73" s="6">
+        <v>74</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F73" s="9">
+        <v>43837</v>
+      </c>
+      <c r="G73" s="9">
+        <v>43838</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="27">
+      <c r="A74" s="6">
+        <v>75</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F74" s="9">
+        <v>43837</v>
+      </c>
+      <c r="G74" s="9">
+        <v>43838</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="27">
+      <c r="A75" s="6">
+        <v>76</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F75" s="9">
+        <v>43837</v>
+      </c>
+      <c r="G75" s="9">
+        <v>43838</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="6">
+        <v>77</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F76" s="9">
+        <v>43837</v>
+      </c>
+      <c r="G76" s="9">
+        <v>43838</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="6">
+        <v>78</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F77" s="9">
+        <v>43837</v>
+      </c>
+      <c r="G77" s="9">
+        <v>43838</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="6">
+        <v>79</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78" s="9">
+        <v>43837</v>
+      </c>
+      <c r="G78" s="9">
+        <v>43838</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="6">
+        <v>80</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="9">
+        <v>43837</v>
+      </c>
+      <c r="G79" s="9">
+        <v>43838</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I42"/>

--- a/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
+++ b/workfile/锐安项目文档/锐安项目二期/bi/粗略需求分析/BI需求问题列表.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="问题列表" sheetId="1" r:id="rId1"/>
     <sheet name="修改意见" sheetId="2" r:id="rId2"/>
+    <sheet name="问题记录" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题列表!$A$1:$I$42</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="227">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -359,10 +360,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>李帆</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -524,10 +521,6 @@
   </si>
   <si>
     <t>数据源选取全部合同数据，不限制时间区间范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分析维度中的项目状态为未启动，已完工未验收，已验收，未完工，不具备条件等5项目状态，此维度需考虑扩展性。以便后续拓展维保情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -841,6 +834,152 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加未立项项目状态（未立项为合同评审已通过，但工程项目未立项的数据）</t>
+  </si>
+  <si>
+    <t>数据中去掉垫资类数据</t>
+  </si>
+  <si>
+    <t>合同类型的取值（购销、集成、服务）</t>
+  </si>
+  <si>
+    <t>地图的颜色区间范围（明日珊姐提供，根据提供的做修改）</t>
+  </si>
+  <si>
+    <t>页面中添加项目状态的按钮选取</t>
+  </si>
+  <si>
+    <r>
+      <t>取合同金额换为取合同业绩金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，是否将需求中的合同签订日期是否需要换为业绩记录日期？？</t>
+    </r>
+  </si>
+  <si>
+    <t>明细表增加两个筛选条件（项目名称、项目编号）模糊查询</t>
+  </si>
+  <si>
+    <t>部分条件选取存在缺失值的情况</t>
+  </si>
+  <si>
+    <t>平均工时逻辑核对</t>
+  </si>
+  <si>
+    <t>工时选取的为完工项目</t>
+  </si>
+  <si>
+    <t>工程售后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后-合同项目整体交付概况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后-合同项目整体交付概况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王阔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期与取值无必要关系，需求取合同签订日期即取合同签订日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张珊珊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张珊珊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后-合同项目整体交付概况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增的未立项的项目中合同签订日期对应的取值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取对应评审意见中最后一条对应的评审意见对应的日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后-合同项目整体交付概况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增的明细表中对应的工程中心字段的取值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取对应对应履行责任人所对应的一级部门及二级部门，为合同实施一级部门和二级部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -942,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -972,9 +1111,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -993,6 +1129,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1297,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView topLeftCell="D77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1597,7 +1738,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>79</v>
@@ -1636,7 +1777,7 @@
         <v>43789</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>58</v>
@@ -1653,7 +1794,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>79</v>
@@ -1680,7 +1821,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>79</v>
@@ -1707,10 +1848,10 @@
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="9">
         <v>43787</v>
@@ -1719,7 +1860,7 @@
         <v>43789</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>61</v>
@@ -1736,10 +1877,10 @@
         <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="9">
         <v>43787</v>
@@ -1748,7 +1889,7 @@
         <v>43789</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>62</v>
@@ -1765,7 +1906,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>79</v>
@@ -1792,7 +1933,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>79</v>
@@ -1819,7 +1960,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>79</v>
@@ -1846,7 +1987,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>79</v>
@@ -1873,7 +2014,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>79</v>
@@ -1900,7 +2041,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>79</v>
@@ -1950,10 +2091,10 @@
         <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F24" s="9">
         <v>43787</v>
@@ -1977,7 +2118,7 @@
         <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>79</v>
@@ -2004,7 +2145,7 @@
         <v>72</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>79</v>
@@ -2034,7 +2175,7 @@
         <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="9">
         <v>43788</v>
@@ -2060,7 +2201,7 @@
         <v>54</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>79</v>
@@ -2081,16 +2222,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" s="9">
         <v>43788</v>
@@ -2099,7 +2240,7 @@
         <v>43789</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -2108,16 +2249,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="9">
         <v>43788</v>
@@ -2126,7 +2267,7 @@
         <v>43789</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -2135,16 +2276,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" s="9">
         <v>43788</v>
@@ -2153,7 +2294,7 @@
         <v>43789</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I31" s="2"/>
     </row>
@@ -2162,16 +2303,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F32" s="9">
         <v>43788</v>
@@ -2180,7 +2321,7 @@
         <v>43789</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2192,13 +2333,13 @@
         <v>50</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" s="9">
         <v>43788</v>
@@ -2207,7 +2348,7 @@
         <v>43789</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="2"/>
     </row>
@@ -2216,10 +2357,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>28</v>
@@ -2234,7 +2375,7 @@
         <v>43790</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -2246,7 +2387,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>28</v>
@@ -2261,7 +2402,7 @@
         <v>43790</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -2270,10 +2411,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
@@ -2288,7 +2429,7 @@
         <v>43790</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -2297,10 +2438,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>28</v>
@@ -2315,7 +2456,7 @@
         <v>43790</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" s="2"/>
     </row>
@@ -2324,10 +2465,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>28</v>
@@ -2342,7 +2483,7 @@
         <v>43790</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -2354,7 +2495,7 @@
         <v>50</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>28</v>
@@ -2369,7 +2510,7 @@
         <v>43790</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I39" s="2"/>
     </row>
@@ -2378,10 +2519,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>28</v>
@@ -2396,7 +2537,7 @@
         <v>43790</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I40" s="2"/>
     </row>
@@ -2405,16 +2546,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="9">
         <v>43790</v>
@@ -2422,8 +2563,8 @@
       <c r="G41" s="9">
         <v>43790</v>
       </c>
-      <c r="H41" s="18" t="s">
-        <v>114</v>
+      <c r="H41" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -2435,13 +2576,13 @@
         <v>50</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" s="9">
         <v>43790</v>
@@ -2457,15 +2598,17 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D43" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F43" s="9">
         <v>43805</v>
       </c>
@@ -2480,15 +2623,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F44" s="9">
         <v>43805</v>
       </c>
@@ -2496,7 +2641,7 @@
         <v>43805</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -2505,15 +2650,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F45" s="9">
         <v>43805</v>
       </c>
@@ -2521,7 +2668,7 @@
         <v>43805</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I45" s="2"/>
     </row>
@@ -2530,15 +2677,17 @@
         <v>47</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F46" s="9">
         <v>43805</v>
       </c>
@@ -2546,7 +2695,7 @@
         <v>43820</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I46" s="2"/>
     </row>
@@ -2555,15 +2704,17 @@
         <v>48</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F47" s="9">
         <v>43805</v>
       </c>
@@ -2571,7 +2722,7 @@
         <v>43820</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -2580,15 +2731,17 @@
         <v>49</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F48" s="9">
         <v>43805</v>
       </c>
@@ -2596,7 +2749,7 @@
         <v>43820</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I48" s="2"/>
     </row>
@@ -2605,15 +2758,17 @@
         <v>50</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F49" s="9">
         <v>43805</v>
       </c>
@@ -2621,7 +2776,7 @@
         <v>43820</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I49" s="2"/>
     </row>
@@ -2630,15 +2785,17 @@
         <v>51</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F50" s="9">
         <v>43805</v>
       </c>
@@ -2646,7 +2803,7 @@
         <v>43820</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -2655,15 +2812,17 @@
         <v>52</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F51" s="9">
         <v>43805</v>
       </c>
@@ -2671,7 +2830,7 @@
         <v>43805</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I51" s="2"/>
     </row>
@@ -2680,15 +2839,17 @@
         <v>53</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F52" s="9">
         <v>43805</v>
       </c>
@@ -2696,7 +2857,7 @@
         <v>43805</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I52" s="2"/>
     </row>
@@ -2705,15 +2866,17 @@
         <v>54</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F53" s="9">
         <v>43805</v>
       </c>
@@ -2721,7 +2884,7 @@
         <v>43805</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -2730,15 +2893,17 @@
         <v>55</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F54" s="9">
         <v>43805</v>
       </c>
@@ -2746,7 +2911,7 @@
         <v>43805</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I54" s="2"/>
     </row>
@@ -2755,15 +2920,17 @@
         <v>56</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F55" s="9">
         <v>43805</v>
       </c>
@@ -2771,7 +2938,7 @@
         <v>43805</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I55" s="2"/>
     </row>
@@ -2780,15 +2947,17 @@
         <v>57</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F56" s="9">
         <v>43805</v>
       </c>
@@ -2796,7 +2965,7 @@
         <v>43805</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I56" s="2"/>
     </row>
@@ -2805,15 +2974,17 @@
         <v>58</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F57" s="9">
         <v>43805</v>
       </c>
@@ -2821,7 +2992,7 @@
         <v>43805</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I57" s="2"/>
     </row>
@@ -2830,15 +3001,17 @@
         <v>59</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D58" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F58" s="9">
         <v>43805</v>
       </c>
@@ -2846,7 +3019,7 @@
         <v>43805</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I58" s="2"/>
     </row>
@@ -2855,15 +3028,17 @@
         <v>60</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F59" s="9">
         <v>43805</v>
       </c>
@@ -2871,7 +3046,7 @@
         <v>43805</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -2880,15 +3055,17 @@
         <v>61</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F60" s="9">
         <v>43805</v>
       </c>
@@ -2896,7 +3073,7 @@
         <v>43805</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I60" s="2"/>
     </row>
@@ -2905,15 +3082,17 @@
         <v>62</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="F61" s="9">
         <v>43805</v>
       </c>
@@ -2921,7 +3100,7 @@
         <v>43805</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I61" s="2"/>
     </row>
@@ -2930,16 +3109,16 @@
         <v>63</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F62" s="9">
         <v>43819</v>
@@ -2948,7 +3127,7 @@
         <v>43819</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I62" s="2"/>
     </row>
@@ -2957,16 +3136,16 @@
         <v>64</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F63" s="9">
         <v>43819</v>
@@ -2975,7 +3154,7 @@
         <v>43819</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I63" s="2"/>
     </row>
@@ -2984,16 +3163,16 @@
         <v>65</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64" s="9">
         <v>43819</v>
@@ -3002,7 +3181,7 @@
         <v>43819</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I64" s="2"/>
     </row>
@@ -3011,16 +3190,16 @@
         <v>66</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F65" s="9">
         <v>43819</v>
@@ -3029,7 +3208,7 @@
         <v>43819</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I65" s="2"/>
     </row>
@@ -3038,16 +3217,16 @@
         <v>67</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F66" s="9">
         <v>43823</v>
@@ -3056,7 +3235,7 @@
         <v>43823</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I66" s="2"/>
     </row>
@@ -3065,16 +3244,16 @@
         <v>68</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F67" s="9">
         <v>43823</v>
@@ -3083,7 +3262,7 @@
         <v>43823</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I67" s="2"/>
     </row>
@@ -3092,16 +3271,16 @@
         <v>69</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F68" s="9">
         <v>43823</v>
@@ -3110,7 +3289,7 @@
         <v>43823</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I68" s="2"/>
     </row>
@@ -3119,16 +3298,16 @@
         <v>70</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>161</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F69" s="9">
         <v>43823</v>
@@ -3137,7 +3316,7 @@
         <v>43823</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I69" s="2"/>
     </row>
@@ -3146,16 +3325,16 @@
         <v>71</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F70" s="9">
         <v>43823</v>
@@ -3164,7 +3343,7 @@
         <v>43823</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I70" s="2"/>
     </row>
@@ -3173,16 +3352,16 @@
         <v>72</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F71" s="9">
         <v>43837</v>
@@ -3191,7 +3370,7 @@
         <v>43838</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3199,16 +3378,16 @@
         <v>73</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F72" s="9">
         <v>43837</v>
@@ -3217,7 +3396,7 @@
         <v>43838</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="27">
@@ -3225,16 +3404,16 @@
         <v>74</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F73" s="9">
         <v>43837</v>
@@ -3243,7 +3422,7 @@
         <v>43838</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="27">
@@ -3251,16 +3430,16 @@
         <v>75</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F74" s="9">
         <v>43837</v>
@@ -3269,7 +3448,7 @@
         <v>43838</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="27">
@@ -3277,16 +3456,16 @@
         <v>76</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F75" s="9">
         <v>43837</v>
@@ -3295,7 +3474,7 @@
         <v>43838</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3303,16 +3482,16 @@
         <v>77</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F76" s="9">
         <v>43837</v>
@@ -3321,7 +3500,7 @@
         <v>43838</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3329,16 +3508,16 @@
         <v>78</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F77" s="9">
         <v>43837</v>
@@ -3347,7 +3526,7 @@
         <v>43838</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3355,16 +3534,16 @@
         <v>79</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F78" s="9">
         <v>43837</v>
@@ -3373,7 +3552,7 @@
         <v>43838</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3381,16 +3560,16 @@
         <v>80</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F79" s="9">
         <v>43837</v>
@@ -3399,7 +3578,102 @@
         <v>43838</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.25">
+      <c r="A80" s="21">
+        <v>81</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F80" s="23">
+        <v>43839</v>
+      </c>
+      <c r="G80" s="23">
+        <v>43839</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F81" s="23">
+        <v>43839</v>
+      </c>
+      <c r="G81" s="23">
+        <v>43839</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F82" s="23">
+        <v>43478</v>
+      </c>
+      <c r="G82" s="23">
+        <v>43478</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" s="23">
+        <v>43478</v>
+      </c>
+      <c r="G83" s="23">
+        <v>43478</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3412,10 +3686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3469,7 +3743,7 @@
         <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="9">
         <v>43783</v>
@@ -3495,7 +3769,7 @@
         <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="9">
         <v>43783</v>
@@ -3521,7 +3795,7 @@
         <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="9">
         <v>43783</v>
@@ -3547,7 +3821,7 @@
         <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="9">
         <v>43783</v>
@@ -3573,7 +3847,7 @@
         <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F6" s="9">
         <v>43783</v>
@@ -3599,7 +3873,7 @@
         <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="9">
         <v>43789</v>
@@ -3608,7 +3882,7 @@
         <v>43789</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="27">
@@ -3618,14 +3892,14 @@
       <c r="B8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" s="9">
         <v>43789</v>
@@ -3634,7 +3908,7 @@
         <v>43789</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="25.5">
@@ -3644,14 +3918,14 @@
       <c r="B9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F9" s="9">
         <v>43789</v>
@@ -3660,7 +3934,7 @@
         <v>43789</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3670,14 +3944,14 @@
       <c r="B10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="9">
         <v>43789</v>
@@ -3686,34 +3960,133 @@
         <v>43789</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="27">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="40.5">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>127</v>
+      <c r="A11" s="21">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="21">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="13" t="s">
-        <v>85</v>
+      <c r="A13" s="21">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="27">
+      <c r="A14" s="21">
+        <v>16</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27">
+      <c r="A15" s="21">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="21">
+        <v>18</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="21">
+        <v>19</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="21">
+        <v>20</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="21">
+        <v>21</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3721,4 +4094,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>